--- a/Banco Central/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
+++ b/Banco Central/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Serie</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11114,6 +11117,38 @@
         <v>117.7</v>
       </c>
     </row>
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307">
+        <v>115.5</v>
+      </c>
+      <c r="C307">
+        <v>100.1</v>
+      </c>
+      <c r="D307">
+        <v>98</v>
+      </c>
+      <c r="E307">
+        <v>107.6</v>
+      </c>
+      <c r="F307">
+        <v>96</v>
+      </c>
+      <c r="G307">
+        <v>132.2</v>
+      </c>
+      <c r="H307">
+        <v>121.9</v>
+      </c>
+      <c r="I307">
+        <v>114.4</v>
+      </c>
+      <c r="J307">
+        <v>117.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
